--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Adam17-Notch1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Adam17-Notch1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.1239329569191</v>
+        <v>19.389619</v>
       </c>
       <c r="H2">
-        <v>19.1239329569191</v>
+        <v>58.168857</v>
       </c>
       <c r="I2">
-        <v>0.1299084396398113</v>
+        <v>0.1304684867767725</v>
       </c>
       <c r="J2">
-        <v>0.1299084396398113</v>
+        <v>0.1304684867767725</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>59.5518718847718</v>
+        <v>60.14337933333334</v>
       </c>
       <c r="N2">
-        <v>59.5518718847718</v>
+        <v>180.430138</v>
       </c>
       <c r="O2">
-        <v>0.5442012925791203</v>
+        <v>0.5373443142606099</v>
       </c>
       <c r="P2">
-        <v>0.5442012925791203</v>
+        <v>0.5373443142606098</v>
       </c>
       <c r="Q2">
-        <v>1138.866005383411</v>
+        <v>1166.157210645807</v>
       </c>
       <c r="R2">
-        <v>1138.866005383411</v>
+        <v>10495.41489581227</v>
       </c>
       <c r="S2">
-        <v>0.07069634076892192</v>
+        <v>0.07010649955968427</v>
       </c>
       <c r="T2">
-        <v>0.07069634076892192</v>
+        <v>0.07010649955968426</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.1239329569191</v>
+        <v>19.389619</v>
       </c>
       <c r="H3">
-        <v>19.1239329569191</v>
+        <v>58.168857</v>
       </c>
       <c r="I3">
-        <v>0.1299084396398113</v>
+        <v>0.1304684867767725</v>
       </c>
       <c r="J3">
-        <v>0.1299084396398113</v>
+        <v>0.1304684867767725</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.8601906248227</v>
+        <v>11.05007466666667</v>
       </c>
       <c r="N3">
-        <v>10.8601906248227</v>
+        <v>33.150224</v>
       </c>
       <c r="O3">
-        <v>0.09924339216607321</v>
+        <v>0.09872565958390839</v>
       </c>
       <c r="P3">
-        <v>0.09924339216607321</v>
+        <v>0.09872565958390837</v>
       </c>
       <c r="Q3">
-        <v>207.6895574084706</v>
+        <v>214.2567377082187</v>
       </c>
       <c r="R3">
-        <v>207.6895574084706</v>
+        <v>1928.310639373968</v>
       </c>
       <c r="S3">
-        <v>0.01289255422085644</v>
+        <v>0.01288058741195129</v>
       </c>
       <c r="T3">
-        <v>0.01289255422085644</v>
+        <v>0.01288058741195129</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.1239329569191</v>
+        <v>19.389619</v>
       </c>
       <c r="H4">
-        <v>19.1239329569191</v>
+        <v>58.168857</v>
       </c>
       <c r="I4">
-        <v>0.1299084396398113</v>
+        <v>0.1304684867767725</v>
       </c>
       <c r="J4">
-        <v>0.1299084396398113</v>
+        <v>0.1304684867767725</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.0361842023177</v>
+        <v>12.25483666666667</v>
       </c>
       <c r="N4">
-        <v>12.0361842023177</v>
+        <v>36.76451</v>
       </c>
       <c r="O4">
-        <v>0.1099899431086839</v>
+        <v>0.1094894712937444</v>
       </c>
       <c r="P4">
-        <v>0.1099899431086839</v>
+        <v>0.1094894712937444</v>
       </c>
       <c r="Q4">
-        <v>230.1791797422525</v>
+        <v>237.6166138738967</v>
       </c>
       <c r="R4">
-        <v>230.1791797422525</v>
+        <v>2138.54952486507</v>
       </c>
       <c r="S4">
-        <v>0.01428862188532073</v>
+        <v>0.0142849256376837</v>
       </c>
       <c r="T4">
-        <v>0.01428862188532073</v>
+        <v>0.0142849256376837</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.1239329569191</v>
+        <v>19.389619</v>
       </c>
       <c r="H5">
-        <v>19.1239329569191</v>
+        <v>58.168857</v>
       </c>
       <c r="I5">
-        <v>0.1299084396398113</v>
+        <v>0.1304684867767725</v>
       </c>
       <c r="J5">
-        <v>0.1299084396398113</v>
+        <v>0.1304684867767725</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.9306142311359</v>
+        <v>13.120599</v>
       </c>
       <c r="N5">
-        <v>12.9306142311359</v>
+        <v>39.361797</v>
       </c>
       <c r="O5">
-        <v>0.1181634893365215</v>
+        <v>0.1172245282937728</v>
       </c>
       <c r="P5">
-        <v>0.1181634893365215</v>
+        <v>0.1172245282937728</v>
       </c>
       <c r="Q5">
-        <v>247.2841996480269</v>
+        <v>254.403415661781</v>
       </c>
       <c r="R5">
-        <v>247.2841996480269</v>
+        <v>2289.630740956029</v>
       </c>
       <c r="S5">
-        <v>0.01535043452210298</v>
+        <v>0.01529410681960949</v>
       </c>
       <c r="T5">
-        <v>0.01535043452210298</v>
+        <v>0.01529410681960949</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.1239329569191</v>
+        <v>19.389619</v>
       </c>
       <c r="H6">
-        <v>19.1239329569191</v>
+        <v>58.168857</v>
       </c>
       <c r="I6">
-        <v>0.1299084396398113</v>
+        <v>0.1304684867767725</v>
       </c>
       <c r="J6">
-        <v>0.1299084396398113</v>
+        <v>0.1304684867767725</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.0510002072976</v>
+        <v>15.358189</v>
       </c>
       <c r="N6">
-        <v>14.0510002072976</v>
+        <v>46.074567</v>
       </c>
       <c r="O6">
-        <v>0.128401882809601</v>
+        <v>0.1372160265679646</v>
       </c>
       <c r="P6">
-        <v>0.128401882809601</v>
+        <v>0.1372160265679646</v>
       </c>
       <c r="Q6">
-        <v>268.7103859420156</v>
+        <v>297.789433239991</v>
       </c>
       <c r="R6">
-        <v>268.7103859420156</v>
+        <v>2680.104899159919</v>
       </c>
       <c r="S6">
-        <v>0.01668048824260917</v>
+        <v>0.01790236734784376</v>
       </c>
       <c r="T6">
-        <v>0.01668048824260917</v>
+        <v>0.01790236734784376</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>23.9985803629814</v>
+        <v>24.05875033333333</v>
       </c>
       <c r="H7">
-        <v>23.9985803629814</v>
+        <v>72.17625099999999</v>
       </c>
       <c r="I7">
-        <v>0.1630218080950532</v>
+        <v>0.1618860458129771</v>
       </c>
       <c r="J7">
-        <v>0.1630218080950532</v>
+        <v>0.1618860458129771</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>59.5518718847718</v>
+        <v>60.14337933333334</v>
       </c>
       <c r="N7">
-        <v>59.5518718847718</v>
+        <v>180.430138</v>
       </c>
       <c r="O7">
-        <v>0.5442012925791203</v>
+        <v>0.5373443142606099</v>
       </c>
       <c r="P7">
-        <v>0.5442012925791203</v>
+        <v>0.5373443142606098</v>
       </c>
       <c r="Q7">
-        <v>1429.160383192669</v>
+        <v>1446.974547583626</v>
       </c>
       <c r="R7">
-        <v>1429.160383192669</v>
+        <v>13022.77092825264</v>
       </c>
       <c r="S7">
-        <v>0.08871667868391327</v>
+        <v>0.08698854627573585</v>
       </c>
       <c r="T7">
-        <v>0.08871667868391327</v>
+        <v>0.08698854627573582</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>23.9985803629814</v>
+        <v>24.05875033333333</v>
       </c>
       <c r="H8">
-        <v>23.9985803629814</v>
+        <v>72.17625099999999</v>
       </c>
       <c r="I8">
-        <v>0.1630218080950532</v>
+        <v>0.1618860458129771</v>
       </c>
       <c r="J8">
-        <v>0.1630218080950532</v>
+        <v>0.1618860458129771</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.8601906248227</v>
+        <v>11.05007466666667</v>
       </c>
       <c r="N8">
-        <v>10.8601906248227</v>
+        <v>33.150224</v>
       </c>
       <c r="O8">
-        <v>0.09924339216607321</v>
+        <v>0.09872565958390839</v>
       </c>
       <c r="P8">
-        <v>0.09924339216607321</v>
+        <v>0.09872565958390837</v>
       </c>
       <c r="Q8">
-        <v>260.6291574671047</v>
+        <v>265.8509875700249</v>
       </c>
       <c r="R8">
-        <v>260.6291574671047</v>
+        <v>2392.658888130224</v>
       </c>
       <c r="S8">
-        <v>0.01617883723239969</v>
+        <v>0.01598230665031697</v>
       </c>
       <c r="T8">
-        <v>0.01617883723239969</v>
+        <v>0.01598230665031697</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>23.9985803629814</v>
+        <v>24.05875033333333</v>
       </c>
       <c r="H9">
-        <v>23.9985803629814</v>
+        <v>72.17625099999999</v>
       </c>
       <c r="I9">
-        <v>0.1630218080950532</v>
+        <v>0.1618860458129771</v>
       </c>
       <c r="J9">
-        <v>0.1630218080950532</v>
+        <v>0.1618860458129771</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.0361842023177</v>
+        <v>12.25483666666667</v>
       </c>
       <c r="N9">
-        <v>12.0361842023177</v>
+        <v>36.76451</v>
       </c>
       <c r="O9">
-        <v>0.1099899431086839</v>
+        <v>0.1094894712937444</v>
       </c>
       <c r="P9">
-        <v>0.1099899431086839</v>
+        <v>0.1094894712937444</v>
       </c>
       <c r="Q9">
-        <v>288.8513338429685</v>
+        <v>294.8360557391122</v>
       </c>
       <c r="R9">
-        <v>288.8513338429685</v>
+        <v>2653.52450165201</v>
       </c>
       <c r="S9">
-        <v>0.01793075939784968</v>
+        <v>0.01772481756589774</v>
       </c>
       <c r="T9">
-        <v>0.01793075939784968</v>
+        <v>0.01772481756589774</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>23.9985803629814</v>
+        <v>24.05875033333333</v>
       </c>
       <c r="H10">
-        <v>23.9985803629814</v>
+        <v>72.17625099999999</v>
       </c>
       <c r="I10">
-        <v>0.1630218080950532</v>
+        <v>0.1618860458129771</v>
       </c>
       <c r="J10">
-        <v>0.1630218080950532</v>
+        <v>0.1618860458129771</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.9306142311359</v>
+        <v>13.120599</v>
       </c>
       <c r="N10">
-        <v>12.9306142311359</v>
+        <v>39.361797</v>
       </c>
       <c r="O10">
-        <v>0.1181634893365215</v>
+        <v>0.1172245282937728</v>
       </c>
       <c r="P10">
-        <v>0.1181634893365215</v>
+        <v>0.1172245282937728</v>
       </c>
       <c r="Q10">
-        <v>310.3163847686258</v>
+        <v>315.665215564783</v>
       </c>
       <c r="R10">
-        <v>310.3163847686258</v>
+        <v>2840.986940083047</v>
       </c>
       <c r="S10">
-        <v>0.01926322568246027</v>
+        <v>0.01897701535777033</v>
       </c>
       <c r="T10">
-        <v>0.01926322568246027</v>
+        <v>0.01897701535777033</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>23.9985803629814</v>
+        <v>24.05875033333333</v>
       </c>
       <c r="H11">
-        <v>23.9985803629814</v>
+        <v>72.17625099999999</v>
       </c>
       <c r="I11">
-        <v>0.1630218080950532</v>
+        <v>0.1618860458129771</v>
       </c>
       <c r="J11">
-        <v>0.1630218080950532</v>
+        <v>0.1618860458129771</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.0510002072976</v>
+        <v>15.358189</v>
       </c>
       <c r="N11">
-        <v>14.0510002072976</v>
+        <v>46.074567</v>
       </c>
       <c r="O11">
-        <v>0.128401882809601</v>
+        <v>0.1372160265679646</v>
       </c>
       <c r="P11">
-        <v>0.128401882809601</v>
+        <v>0.1372160265679646</v>
       </c>
       <c r="Q11">
-        <v>337.2040576550997</v>
+        <v>369.4988347231463</v>
       </c>
       <c r="R11">
-        <v>337.2040576550997</v>
+        <v>3325.489512508317</v>
       </c>
       <c r="S11">
-        <v>0.02093230709843029</v>
+        <v>0.0222133599632562</v>
       </c>
       <c r="T11">
-        <v>0.02093230709843029</v>
+        <v>0.0222133599632562</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>43.4892826682335</v>
+        <v>43.60048699999999</v>
       </c>
       <c r="H12">
-        <v>43.4892826682335</v>
+        <v>130.801461</v>
       </c>
       <c r="I12">
-        <v>0.2954217035382803</v>
+        <v>0.293378098951833</v>
       </c>
       <c r="J12">
-        <v>0.2954217035382803</v>
+        <v>0.2933780989518329</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>59.5518718847718</v>
+        <v>60.14337933333334</v>
       </c>
       <c r="N12">
-        <v>59.5518718847718</v>
+        <v>180.430138</v>
       </c>
       <c r="O12">
-        <v>0.5442012925791203</v>
+        <v>0.5373443142606099</v>
       </c>
       <c r="P12">
-        <v>0.5442012925791203</v>
+        <v>0.5373443142606098</v>
       </c>
       <c r="Q12">
-        <v>2589.868189819268</v>
+        <v>2622.280628759068</v>
       </c>
       <c r="R12">
-        <v>2589.868189819268</v>
+        <v>23600.52565883162</v>
       </c>
       <c r="S12">
-        <v>0.1607688729214578</v>
+        <v>0.1576450534003541</v>
       </c>
       <c r="T12">
-        <v>0.1607688729214578</v>
+        <v>0.157645053400354</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>43.4892826682335</v>
+        <v>43.60048699999999</v>
       </c>
       <c r="H13">
-        <v>43.4892826682335</v>
+        <v>130.801461</v>
       </c>
       <c r="I13">
-        <v>0.2954217035382803</v>
+        <v>0.293378098951833</v>
       </c>
       <c r="J13">
-        <v>0.2954217035382803</v>
+        <v>0.2933780989518329</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.8601906248227</v>
+        <v>11.05007466666667</v>
       </c>
       <c r="N13">
-        <v>10.8601906248227</v>
+        <v>33.150224</v>
       </c>
       <c r="O13">
-        <v>0.09924339216607321</v>
+        <v>0.09872565958390839</v>
       </c>
       <c r="P13">
-        <v>0.09924339216607321</v>
+        <v>0.09872565958390837</v>
       </c>
       <c r="Q13">
-        <v>472.3018999138138</v>
+        <v>481.7886368530293</v>
       </c>
       <c r="R13">
-        <v>472.3018999138138</v>
+        <v>4336.097731677264</v>
       </c>
       <c r="S13">
-        <v>0.02931865197861897</v>
+        <v>0.02896394632649285</v>
       </c>
       <c r="T13">
-        <v>0.02931865197861897</v>
+        <v>0.02896394632649284</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>43.4892826682335</v>
+        <v>43.60048699999999</v>
       </c>
       <c r="H14">
-        <v>43.4892826682335</v>
+        <v>130.801461</v>
       </c>
       <c r="I14">
-        <v>0.2954217035382803</v>
+        <v>0.293378098951833</v>
       </c>
       <c r="J14">
-        <v>0.2954217035382803</v>
+        <v>0.2933780989518329</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.0361842023177</v>
+        <v>12.25483666666667</v>
       </c>
       <c r="N14">
-        <v>12.0361842023177</v>
+        <v>36.76451</v>
       </c>
       <c r="O14">
-        <v>0.1099899431086839</v>
+        <v>0.1094894712937444</v>
       </c>
       <c r="P14">
-        <v>0.1099899431086839</v>
+        <v>0.1094894712937444</v>
       </c>
       <c r="Q14">
-        <v>523.445017021521</v>
+        <v>534.3168467721233</v>
       </c>
       <c r="R14">
-        <v>523.445017021521</v>
+        <v>4808.85162094911</v>
       </c>
       <c r="S14">
-        <v>0.03249341636524592</v>
+        <v>0.03212181294340002</v>
       </c>
       <c r="T14">
-        <v>0.03249341636524592</v>
+        <v>0.0321218129434</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>43.4892826682335</v>
+        <v>43.60048699999999</v>
       </c>
       <c r="H15">
-        <v>43.4892826682335</v>
+        <v>130.801461</v>
       </c>
       <c r="I15">
-        <v>0.2954217035382803</v>
+        <v>0.293378098951833</v>
       </c>
       <c r="J15">
-        <v>0.2954217035382803</v>
+        <v>0.2933780989518329</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>12.9306142311359</v>
+        <v>13.120599</v>
       </c>
       <c r="N15">
-        <v>12.9306142311359</v>
+        <v>39.361797</v>
       </c>
       <c r="O15">
-        <v>0.1181634893365215</v>
+        <v>0.1172245282937728</v>
       </c>
       <c r="P15">
-        <v>0.1181634893365215</v>
+        <v>0.1172245282937728</v>
       </c>
       <c r="Q15">
-        <v>562.3431373717519</v>
+        <v>572.064506131713</v>
       </c>
       <c r="R15">
-        <v>562.3431373717519</v>
+        <v>5148.580555185417</v>
       </c>
       <c r="S15">
-        <v>0.03490805931582259</v>
+        <v>0.03439110926135242</v>
       </c>
       <c r="T15">
-        <v>0.03490805931582259</v>
+        <v>0.03439110926135241</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>43.4892826682335</v>
+        <v>43.60048699999999</v>
       </c>
       <c r="H16">
-        <v>43.4892826682335</v>
+        <v>130.801461</v>
       </c>
       <c r="I16">
-        <v>0.2954217035382803</v>
+        <v>0.293378098951833</v>
       </c>
       <c r="J16">
-        <v>0.2954217035382803</v>
+        <v>0.2933780989518329</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.0510002072976</v>
+        <v>15.358189</v>
       </c>
       <c r="N16">
-        <v>14.0510002072976</v>
+        <v>46.074567</v>
       </c>
       <c r="O16">
-        <v>0.128401882809601</v>
+        <v>0.1372160265679646</v>
       </c>
       <c r="P16">
-        <v>0.128401882809601</v>
+        <v>0.1372160265679646</v>
       </c>
       <c r="Q16">
-        <v>611.0679197865728</v>
+        <v>669.6245198380429</v>
       </c>
       <c r="R16">
-        <v>611.0679197865728</v>
+        <v>6026.620678542386</v>
       </c>
       <c r="S16">
-        <v>0.03793270295713495</v>
+        <v>0.04025617702023367</v>
       </c>
       <c r="T16">
-        <v>0.03793270295713495</v>
+        <v>0.04025617702023366</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>54.1087873923966</v>
+        <v>54.50663</v>
       </c>
       <c r="H17">
-        <v>54.1087873923966</v>
+        <v>163.51989</v>
       </c>
       <c r="I17">
-        <v>0.3675597564990079</v>
+        <v>0.3667631393583046</v>
       </c>
       <c r="J17">
-        <v>0.3675597564990079</v>
+        <v>0.3667631393583046</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>59.5518718847718</v>
+        <v>60.14337933333334</v>
       </c>
       <c r="N17">
-        <v>59.5518718847718</v>
+        <v>180.430138</v>
       </c>
       <c r="O17">
-        <v>0.5442012925791203</v>
+        <v>0.5373443142606099</v>
       </c>
       <c r="P17">
-        <v>0.5442012925791203</v>
+        <v>0.5373443142606098</v>
       </c>
       <c r="Q17">
-        <v>3222.279574632358</v>
+        <v>3278.212924271647</v>
       </c>
       <c r="R17">
-        <v>3222.279574632358</v>
+        <v>29503.91631844482</v>
       </c>
       <c r="S17">
-        <v>0.2000264945868268</v>
+        <v>0.1970780876145567</v>
       </c>
       <c r="T17">
-        <v>0.2000264945868268</v>
+        <v>0.1970780876145566</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>54.1087873923966</v>
+        <v>54.50663</v>
       </c>
       <c r="H18">
-        <v>54.1087873923966</v>
+        <v>163.51989</v>
       </c>
       <c r="I18">
-        <v>0.3675597564990079</v>
+        <v>0.3667631393583046</v>
       </c>
       <c r="J18">
-        <v>0.3675597564990079</v>
+        <v>0.3667631393583046</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>10.8601906248227</v>
+        <v>11.05007466666667</v>
       </c>
       <c r="N18">
-        <v>10.8601906248227</v>
+        <v>33.150224</v>
       </c>
       <c r="O18">
-        <v>0.09924339216607321</v>
+        <v>0.09872565958390839</v>
       </c>
       <c r="P18">
-        <v>0.09924339216607321</v>
+        <v>0.09872565958390837</v>
       </c>
       <c r="Q18">
-        <v>587.6317455594302</v>
+        <v>602.3023313283734</v>
       </c>
       <c r="R18">
-        <v>587.6317455594302</v>
+        <v>5420.72098195536</v>
       </c>
       <c r="S18">
-        <v>0.03647787705869741</v>
+        <v>0.03620893284421353</v>
       </c>
       <c r="T18">
-        <v>0.03647787705869741</v>
+        <v>0.03620893284421352</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>54.1087873923966</v>
+        <v>54.50663</v>
       </c>
       <c r="H19">
-        <v>54.1087873923966</v>
+        <v>163.51989</v>
       </c>
       <c r="I19">
-        <v>0.3675597564990079</v>
+        <v>0.3667631393583046</v>
       </c>
       <c r="J19">
-        <v>0.3675597564990079</v>
+        <v>0.3667631393583046</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>12.0361842023177</v>
+        <v>12.25483666666667</v>
       </c>
       <c r="N19">
-        <v>12.0361842023177</v>
+        <v>36.76451</v>
       </c>
       <c r="O19">
-        <v>0.1099899431086839</v>
+        <v>0.1094894712937444</v>
       </c>
       <c r="P19">
-        <v>0.1099899431086839</v>
+        <v>0.1094894712937444</v>
       </c>
       <c r="Q19">
-        <v>651.2633320189311</v>
+        <v>667.9698479004334</v>
       </c>
       <c r="R19">
-        <v>651.2633320189311</v>
+        <v>6011.728631103901</v>
       </c>
       <c r="S19">
-        <v>0.04042787670636757</v>
+        <v>0.04015670221837466</v>
       </c>
       <c r="T19">
-        <v>0.04042787670636757</v>
+        <v>0.04015670221837465</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>54.1087873923966</v>
+        <v>54.50663</v>
       </c>
       <c r="H20">
-        <v>54.1087873923966</v>
+        <v>163.51989</v>
       </c>
       <c r="I20">
-        <v>0.3675597564990079</v>
+        <v>0.3667631393583046</v>
       </c>
       <c r="J20">
-        <v>0.3675597564990079</v>
+        <v>0.3667631393583046</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>12.9306142311359</v>
+        <v>13.120599</v>
       </c>
       <c r="N20">
-        <v>12.9306142311359</v>
+        <v>39.361797</v>
       </c>
       <c r="O20">
-        <v>0.1181634893365215</v>
+        <v>0.1172245282937728</v>
       </c>
       <c r="P20">
-        <v>0.1181634893365215</v>
+        <v>0.1172245282937728</v>
       </c>
       <c r="Q20">
-        <v>699.6598562856302</v>
+        <v>715.1596350713701</v>
       </c>
       <c r="R20">
-        <v>699.6598562856302</v>
+        <v>6436.43671564233</v>
       </c>
       <c r="S20">
-        <v>0.04343214336760494</v>
+        <v>0.04299363600682052</v>
       </c>
       <c r="T20">
-        <v>0.04343214336760494</v>
+        <v>0.0429936360068205</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>54.1087873923966</v>
+        <v>54.50663</v>
       </c>
       <c r="H21">
-        <v>54.1087873923966</v>
+        <v>163.51989</v>
       </c>
       <c r="I21">
-        <v>0.3675597564990079</v>
+        <v>0.3667631393583046</v>
       </c>
       <c r="J21">
-        <v>0.3675597564990079</v>
+        <v>0.3667631393583046</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>14.0510002072976</v>
+        <v>15.358189</v>
       </c>
       <c r="N21">
-        <v>14.0510002072976</v>
+        <v>46.074567</v>
       </c>
       <c r="O21">
-        <v>0.128401882809601</v>
+        <v>0.1372160265679646</v>
       </c>
       <c r="P21">
-        <v>0.128401882809601</v>
+        <v>0.1372160265679646</v>
       </c>
       <c r="Q21">
-        <v>760.2825828671864</v>
+        <v>837.1231252930701</v>
       </c>
       <c r="R21">
-        <v>760.2825828671864</v>
+        <v>7534.108127637631</v>
       </c>
       <c r="S21">
-        <v>0.04719536477951108</v>
+        <v>0.05032578067433924</v>
       </c>
       <c r="T21">
-        <v>0.04719536477951108</v>
+        <v>0.05032578067433922</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.49027535923095</v>
+        <v>7.059857333333333</v>
       </c>
       <c r="H22">
-        <v>6.49027535923095</v>
+        <v>21.179572</v>
       </c>
       <c r="I22">
-        <v>0.04408829222784726</v>
+        <v>0.04750422910011282</v>
       </c>
       <c r="J22">
-        <v>0.04408829222784726</v>
+        <v>0.04750422910011281</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>59.5518718847718</v>
+        <v>60.14337933333334</v>
       </c>
       <c r="N22">
-        <v>59.5518718847718</v>
+        <v>180.430138</v>
       </c>
       <c r="O22">
-        <v>0.5442012925791203</v>
+        <v>0.5373443142606099</v>
       </c>
       <c r="P22">
-        <v>0.5442012925791203</v>
+        <v>0.5373443142606098</v>
       </c>
       <c r="Q22">
-        <v>386.5080466898128</v>
+        <v>424.6036776378818</v>
       </c>
       <c r="R22">
-        <v>386.5080466898128</v>
+        <v>3821.433098740936</v>
       </c>
       <c r="S22">
-        <v>0.02399290561800046</v>
+        <v>0.02552612741027903</v>
       </c>
       <c r="T22">
-        <v>0.02399290561800046</v>
+        <v>0.02552612741027902</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.49027535923095</v>
+        <v>7.059857333333333</v>
       </c>
       <c r="H23">
-        <v>6.49027535923095</v>
+        <v>21.179572</v>
       </c>
       <c r="I23">
-        <v>0.04408829222784726</v>
+        <v>0.04750422910011282</v>
       </c>
       <c r="J23">
-        <v>0.04408829222784726</v>
+        <v>0.04750422910011281</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>10.8601906248227</v>
+        <v>11.05007466666667</v>
       </c>
       <c r="N23">
-        <v>10.8601906248227</v>
+        <v>33.150224</v>
       </c>
       <c r="O23">
-        <v>0.09924339216607321</v>
+        <v>0.09872565958390839</v>
       </c>
       <c r="P23">
-        <v>0.09924339216607321</v>
+        <v>0.09872565958390837</v>
       </c>
       <c r="Q23">
-        <v>70.48562760883775</v>
+        <v>78.01195066934756</v>
       </c>
       <c r="R23">
-        <v>70.48562760883775</v>
+        <v>702.107556024128</v>
       </c>
       <c r="S23">
-        <v>0.004375471675500683</v>
+        <v>0.004689886350933732</v>
       </c>
       <c r="T23">
-        <v>0.004375471675500683</v>
+        <v>0.004689886350933732</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.49027535923095</v>
+        <v>7.059857333333333</v>
       </c>
       <c r="H24">
-        <v>6.49027535923095</v>
+        <v>21.179572</v>
       </c>
       <c r="I24">
-        <v>0.04408829222784726</v>
+        <v>0.04750422910011282</v>
       </c>
       <c r="J24">
-        <v>0.04408829222784726</v>
+        <v>0.04750422910011281</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>12.0361842023177</v>
+        <v>12.25483666666667</v>
       </c>
       <c r="N24">
-        <v>12.0361842023177</v>
+        <v>36.76451</v>
       </c>
       <c r="O24">
-        <v>0.1099899431086839</v>
+        <v>0.1094894712937444</v>
       </c>
       <c r="P24">
-        <v>0.1099899431086839</v>
+        <v>0.1094894712937444</v>
       </c>
       <c r="Q24">
-        <v>78.1181497474674</v>
+        <v>86.5173985099689</v>
       </c>
       <c r="R24">
-        <v>78.1181497474674</v>
+        <v>778.6565865897201</v>
       </c>
       <c r="S24">
-        <v>0.004849268753899949</v>
+        <v>0.005201212928388259</v>
       </c>
       <c r="T24">
-        <v>0.004849268753899949</v>
+        <v>0.005201212928388256</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.49027535923095</v>
+        <v>7.059857333333333</v>
       </c>
       <c r="H25">
-        <v>6.49027535923095</v>
+        <v>21.179572</v>
       </c>
       <c r="I25">
-        <v>0.04408829222784726</v>
+        <v>0.04750422910011282</v>
       </c>
       <c r="J25">
-        <v>0.04408829222784726</v>
+        <v>0.04750422910011281</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>12.9306142311359</v>
+        <v>13.120599</v>
       </c>
       <c r="N25">
-        <v>12.9306142311359</v>
+        <v>39.361797</v>
       </c>
       <c r="O25">
-        <v>0.1181634893365215</v>
+        <v>0.1172245282937728</v>
       </c>
       <c r="P25">
-        <v>0.1181634893365215</v>
+        <v>0.1172245282937728</v>
       </c>
       <c r="Q25">
-        <v>83.9232469240624</v>
+        <v>92.62955706787601</v>
       </c>
       <c r="R25">
-        <v>83.9232469240624</v>
+        <v>833.6660136108841</v>
       </c>
       <c r="S25">
-        <v>0.005209626448530671</v>
+        <v>0.005568660848220041</v>
       </c>
       <c r="T25">
-        <v>0.005209626448530671</v>
+        <v>0.005568660848220039</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>6.49027535923095</v>
+        <v>7.059857333333333</v>
       </c>
       <c r="H26">
-        <v>6.49027535923095</v>
+        <v>21.179572</v>
       </c>
       <c r="I26">
-        <v>0.04408829222784726</v>
+        <v>0.04750422910011282</v>
       </c>
       <c r="J26">
-        <v>0.04408829222784726</v>
+        <v>0.04750422910011281</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>14.0510002072976</v>
+        <v>15.358189</v>
       </c>
       <c r="N26">
-        <v>14.0510002072976</v>
+        <v>46.074567</v>
       </c>
       <c r="O26">
-        <v>0.128401882809601</v>
+        <v>0.1372160265679646</v>
       </c>
       <c r="P26">
-        <v>0.128401882809601</v>
+        <v>0.1372160265679646</v>
       </c>
       <c r="Q26">
-        <v>91.19486041797259</v>
+        <v>108.4266232383693</v>
       </c>
       <c r="R26">
-        <v>91.19486041797259</v>
+        <v>975.8396091453241</v>
       </c>
       <c r="S26">
-        <v>0.005661019731915485</v>
+        <v>0.006518341562291759</v>
       </c>
       <c r="T26">
-        <v>0.005661019731915485</v>
+        <v>0.006518341562291757</v>
       </c>
     </row>
   </sheetData>
